--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -5,29 +5,89 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpak\Desktop\Github\Software-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
     <sheet name="Landing Page" sheetId="2" r:id="rId2"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Registration and Account" sheetId="13" r:id="rId3"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Landing Page'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Registration and Account'!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mpak</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mpak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Possitive test cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mpak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Negative test cases</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="245">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -494,9 +554,6 @@
     <t>LP9</t>
   </si>
   <si>
-    <t>Navigate to the landing page</t>
-  </si>
-  <si>
     <t>Open test site with Chrome</t>
   </si>
   <si>
@@ -641,13 +698,200 @@
   </si>
   <si>
     <t>https://youtu.be/HtztZTprRuA</t>
+  </si>
+  <si>
+    <t>Navigate to the landing page with Chrome</t>
+  </si>
+  <si>
+    <t>Check button "Account" is responsive in Chrome</t>
+  </si>
+  <si>
+    <t>Check button "Favorites" is responsive in Chrome</t>
+  </si>
+  <si>
+    <t>LP16</t>
+  </si>
+  <si>
+    <t>LP17</t>
+  </si>
+  <si>
+    <t>RA1</t>
+  </si>
+  <si>
+    <t>Register an account with Google</t>
+  </si>
+  <si>
+    <t>googletest@gmail.com
+123asd123asd</t>
+  </si>
+  <si>
+    <t>Registration with Firefox browser</t>
+  </si>
+  <si>
+    <t>User is logged in with google account</t>
+  </si>
+  <si>
+    <t>Register an account with Facebook</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Click Register with Facebook
+5. Enter valid credentials</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Click Register with Google
+5. Enter valid credentials</t>
+  </si>
+  <si>
+    <t>User is logged in with Facebook account</t>
+  </si>
+  <si>
+    <t>User is logged in with Google account</t>
+  </si>
+  <si>
+    <t>RA2</t>
+  </si>
+  <si>
+    <t>RA3</t>
+  </si>
+  <si>
+    <t>RA4</t>
+  </si>
+  <si>
+    <t>RA5</t>
+  </si>
+  <si>
+    <t>RA6</t>
+  </si>
+  <si>
+    <t>RA7</t>
+  </si>
+  <si>
+    <t>RA8</t>
+  </si>
+  <si>
+    <t>RA9</t>
+  </si>
+  <si>
+    <t>RA10</t>
+  </si>
+  <si>
+    <t>RA11</t>
+  </si>
+  <si>
+    <t>RA12</t>
+  </si>
+  <si>
+    <t>Register an account with new credentials</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Enter valid credentials
+5. click "register"</t>
+  </si>
+  <si>
+    <t>create new account with test mail and info</t>
+  </si>
+  <si>
+    <t>User has created new account</t>
+  </si>
+  <si>
+    <t>Registration with Chrome browser</t>
+  </si>
+  <si>
+    <t>Registration with Opera browser</t>
+  </si>
+  <si>
+    <t>googletest2@gmail.com
+123asd123asd</t>
+  </si>
+  <si>
+    <t>googletest3@gmail.com
+123asd123asd</t>
+  </si>
+  <si>
+    <t>googletest4@gmail.com
+123asd123asd</t>
+  </si>
+  <si>
+    <t>googletest5@gmail.com
+123asd123asd</t>
+  </si>
+  <si>
+    <t>googletest6@gmail.com
+123asd123asd</t>
+  </si>
+  <si>
+    <t>Registration with invalid data</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Enter valid credentials
+5. click "Register"</t>
+  </si>
+  <si>
+    <t>Register with invalid mail</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Enter invalid mail
+5. Observe</t>
+  </si>
+  <si>
+    <t>as.@123.team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An error message appears in red color bellow e-mail field </t>
+  </si>
+  <si>
+    <t>Register with different passwords</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Enter valid mail
+5. Enter different passwords
+6. Observe</t>
+  </si>
+  <si>
+    <t>passOne = asd123
+passTwo = 123asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An error message appears in red color bellow password field </t>
+  </si>
+  <si>
+    <t>Register without consent</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg
+2. Hover over user account button
+3. Click "Registration" 
+4. Enter valid credentials
+5. Leave consent unckecked
+6. Observe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An error message appears in red color bellow consent form </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -740,6 +984,19 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -858,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -934,6 +1191,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,7 +1485,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1577,9 +1843,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1598,7 +1864,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1622,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -1630,22 +1896,22 @@
         <v>139</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>149</v>
-      </c>
       <c r="D2" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>154</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>7</v>
@@ -1657,19 +1923,19 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>154</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>7</v>
@@ -1681,19 +1947,19 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>154</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>7</v>
@@ -1705,19 +1971,19 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>154</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>7</v>
@@ -1728,22 +1994,22 @@
         <v>143</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>163</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>7</v>
@@ -1755,19 +2021,19 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>163</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>7</v>
@@ -1779,19 +2045,19 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>163</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>7</v>
@@ -1803,25 +2069,25 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>165</v>
-      </c>
       <c r="I9" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -1829,47 +2095,47 @@
         <v>147</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="E10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>172</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>7</v>
@@ -1878,23 +2144,23 @@
     </row>
     <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>174</v>
-      </c>
       <c r="E12" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>7</v>
@@ -1903,25 +2169,25 @@
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>7</v>
@@ -1930,23 +2196,23 @@
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="G14" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>7</v>
@@ -1955,78 +2221,106 @@
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="G15" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="G16" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3058,6 +3352,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3241,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3335,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3575,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dark\Documents\GitHub\Software-Testing\E-comerse\Ozone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
     <sheet name="Landing Page" sheetId="2" r:id="rId2"/>
     <sheet name="Registration and Account" sheetId="13" r:id="rId3"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Navigation" sheetId="14" r:id="rId4"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Landing Page'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Navigation!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Registration and Account'!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -87,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="255">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -886,12 +888,53 @@
   <si>
     <t xml:space="preserve">An error message appears in red color bellow consent form </t>
   </si>
+  <si>
+    <t>Change data in Account settings</t>
+  </si>
+  <si>
+    <t>Change name in "Настройки"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to https://www.ozone.bg
+2. Login with valid credentials
+3. Click "Account logo" 
+4. Click "Настройки" 
+5. Enter in name filed "123"
+6. Enter valid password
+6. Click "Запази" </t>
+  </si>
+  <si>
+    <t>Validate fields in "Моите адреси"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to https://www.ozone.bg
+2. Login with valid credentials
+3. Click "Account logo" 
+4. Click "Моите адреси" 
+5. Click "Запази адрес"
+6. Observe </t>
+  </si>
+  <si>
+    <t>Message appears that name was changed successfully</t>
+  </si>
+  <si>
+    <t>Error messages in red appears on all fields marked with astreiks (*)</t>
+  </si>
+  <si>
+    <t>RA13</t>
+  </si>
+  <si>
+    <t>RA14</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -997,6 +1040,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1115,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1189,9 +1247,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1199,6 +1254,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1555,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G15" sqref="G15:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1496,11 +1566,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -1844,7 +1914,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2187,7 @@
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>177</v>
       </c>
@@ -3358,9 +3428,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3419,7 +3489,7 @@
       <c r="D2" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>202</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -3443,7 +3513,7 @@
       <c r="D3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>227</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -3493,7 +3563,7 @@
       <c r="D5" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>228</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -3517,7 +3587,7 @@
       <c r="D6" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>229</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -3567,7 +3637,7 @@
       <c r="D8" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>230</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -3591,7 +3661,7 @@
       <c r="D9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>231</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -3641,7 +3711,7 @@
       <c r="D11" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>236</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -3701,6 +3771,1304 @@
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3708,7 +5076,7 @@
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -4776,22 +6144,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H47"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4975,7 +6333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5069,7 +6427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5309,7 +6667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="265">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -929,12 +929,45 @@
   <si>
     <t>N1</t>
   </si>
+  <si>
+    <t>Navigate to PS4 games</t>
+  </si>
+  <si>
+    <t>Navigate to "Гейминг"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Геиминг" &gt; "Игри за PS4"</t>
+  </si>
+  <si>
+    <t>User should be on PS4 games page</t>
+  </si>
+  <si>
+    <t>Navigate to upcoming games</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Геиминг" &gt; "Предстоящи игри"</t>
+  </si>
+  <si>
+    <t>User should be on upcoming games page</t>
+  </si>
+  <si>
+    <t>Navigate to PC games</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Геиминг" &gt; "PC игри"</t>
+  </si>
+  <si>
+    <t>User should be on PC games page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1042,16 +1075,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1173,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1259,16 +1284,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3428,9 +3450,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A47"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4897,9 +4919,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4945,38 +4967,70 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>260</v>
+      </c>
       <c r="E3" s="28"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="314">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -936,31 +936,189 @@
     <t>Navigate to "Гейминг"</t>
   </si>
   <si>
+    <t>User should be on PS4 games page</t>
+  </si>
+  <si>
+    <t>Navigate to upcoming games</t>
+  </si>
+  <si>
+    <t>User should be on upcoming games page</t>
+  </si>
+  <si>
+    <t>Navigate to PC games</t>
+  </si>
+  <si>
+    <t>User should be on PC games page</t>
+  </si>
+  <si>
+    <t>Navigate to "Книжарница"</t>
+  </si>
+  <si>
     <t>1. Navigate to https://www.ozone.bg/
-2. Hover over  "Геиминг" &gt; "Игри за PS4"</t>
-  </si>
-  <si>
-    <t>User should be on PS4 games page</t>
-  </si>
-  <si>
-    <t>Navigate to upcoming games</t>
+2. Hover over  "Геиминг" &gt; click "Игри за PS4"</t>
   </si>
   <si>
     <t>1. Navigate to https://www.ozone.bg/
-2. Hover over  "Геиминг" &gt; "Предстоящи игри"</t>
-  </si>
-  <si>
-    <t>User should be on upcoming games page</t>
-  </si>
-  <si>
-    <t>Navigate to PC games</t>
+2. Hover over  "Геиминг" &gt; click "Предстоящи игри"</t>
   </si>
   <si>
     <t>1. Navigate to https://www.ozone.bg/
-2. Hover over  "Геиминг" &gt; "PC игри"</t>
-  </si>
-  <si>
-    <t>User should be on PC games page</t>
+2. Hover over  "Геиминг" &gt; click "PC игри"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Книжарница" &gt; click "Научна фантастика, фентъзи и хорър"</t>
+  </si>
+  <si>
+    <t>Navigate to Sci-Fi, Fantasy and Horror books</t>
+  </si>
+  <si>
+    <t>User should be on Sci-Fi, Fantasy and Horror page</t>
+  </si>
+  <si>
+    <t>Navigate to Science books</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Книжарница" &gt; click "Наука"</t>
+  </si>
+  <si>
+    <t>User should be on Science page</t>
+  </si>
+  <si>
+    <t>Navigate to Kids section</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Книжарница" &gt; click "Детска литература"</t>
+  </si>
+  <si>
+    <t>User should be on Kids section page</t>
+  </si>
+  <si>
+    <t>Navigate to Textbooks section</t>
+  </si>
+  <si>
+    <t>User should be on Textbooks page</t>
+  </si>
+  <si>
+    <t>Navigate to Book accessories section</t>
+  </si>
+  <si>
+    <t>User should be on Book accessories page</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>Navigate to "Лаптопи и компютри"</t>
+  </si>
+  <si>
+    <t>Navigate to Razer section</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Книжарница" &gt; click "Аксесоари за книги"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over  "Книжарница" &gt; click "Учебници"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Click "Лаптопи и компютри" &gt; "Razer" block</t>
+  </si>
+  <si>
+    <t>User should be on Razer products page</t>
+  </si>
+  <si>
+    <t>Navigate to Sony section</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Click "Лаптопи и компютри" &gt; "Sony" logo</t>
+  </si>
+  <si>
+    <t>User should be on Sony products page</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Click "Лаптопи и компютри" &gt; "Десктопи" block</t>
+  </si>
+  <si>
+    <t>User should be on Desctop products page</t>
+  </si>
+  <si>
+    <t>Navigate to "Майка и бебе"</t>
+  </si>
+  <si>
+    <t>Navigate to "Бебешки колички" section</t>
+  </si>
+  <si>
+    <t>Navigate to "Десктопи" section</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Click "Майка и бебе" &gt; "Бебешки колички" block</t>
+  </si>
+  <si>
+    <t>Navigate to "Полезни уреди" section</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Click "Майка и бебе" &gt; "Полезни уреди" block</t>
+  </si>
+  <si>
+    <t>User should be on "Бебешки колички" products page</t>
+  </si>
+  <si>
+    <t>User should be on "Полезни уреди" products page</t>
+  </si>
+  <si>
+    <t>Navigate to "Люлки и шезлонги" section</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Click "Майка и бебе" &gt; "Люлки и шезлонги" block</t>
+  </si>
+  <si>
+    <t>User should be on "Люлки и шезлонги" products page</t>
   </si>
 </sst>
 </file>
@@ -1281,9 +1439,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1292,6 +1447,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1588,11 +1746,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -1936,7 +2094,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3450,9 +3608,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14:H15"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4919,9 +5077,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="A21:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4967,7 +5125,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>254</v>
       </c>
@@ -4978,173 +5136,315 @@
         <v>255</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="16" t="s">
-        <v>258</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>295</v>
+      </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>294</v>
+      </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>296</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>306</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>308</v>
+      </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>312</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
     <sheet name="Landing Page" sheetId="2" r:id="rId2"/>
     <sheet name="Registration and Account" sheetId="13" r:id="rId3"/>
     <sheet name="Navigation" sheetId="14" r:id="rId4"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="Search" sheetId="15" r:id="rId5"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Landing Page'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Navigation!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Registration and Account'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Search!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="315">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1119,6 +1121,9 @@
   </si>
   <si>
     <t>User should be on "Люлки и шезлонги" products page</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:T16"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3610,7 +3615,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5077,7 +5082,7 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="A21:F30"/>
     </sheetView>
@@ -6508,6 +6513,1277 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="A5:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6687,7 +7963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6781,7 +8057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7021,7 +8297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="356">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1125,12 +1125,149 @@
   <si>
     <t>S1</t>
   </si>
+  <si>
+    <t>Search for puzzle</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Enter "Puzzle" &gt; hit Enter on keyboard</t>
+  </si>
+  <si>
+    <t>User should see puzzle related products</t>
+  </si>
+  <si>
+    <t>Search for games PC</t>
+  </si>
+  <si>
+    <t>User should see games PC related products</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>games PC</t>
+  </si>
+  <si>
+    <t>Search for fantasy</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Enter "Fantasy" &gt; hit Enter on keyboard</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>User should see Fantasy related products</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Enter "games PC" &gt; hit Enter on keyboard</t>
+  </si>
+  <si>
+    <t>Search for Fallout</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Enter "Fallout" &gt; hit Enter on keyboard</t>
+  </si>
+  <si>
+    <t>Fallout</t>
+  </si>
+  <si>
+    <t>User should see Fallout related products</t>
+  </si>
+  <si>
+    <t>Search with specific keyword</t>
+  </si>
+  <si>
+    <t>Sort results</t>
+  </si>
+  <si>
+    <t>Sort by price puzzle and games</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" and click "Пъзели и игри"
+3. Scroll down and from sort menu choose "Цена"</t>
+  </si>
+  <si>
+    <t>Products are sorted by price</t>
+  </si>
+  <si>
+    <t>Sort by best discount puzzle and games</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" and click "Пъзели и игри"
+3. Scroll down and from sort menu choose "Най-голяма отстъпка"</t>
+  </si>
+  <si>
+    <t>Products are sorted by best discount</t>
+  </si>
+  <si>
+    <t>Sort by name books</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" and click "Книжарница" &gt; "Книги"
+3. Scroll down and from sort menu choose "Име"</t>
+  </si>
+  <si>
+    <t>Products are sorted by name alphabeticaly</t>
+  </si>
+  <si>
+    <t>Sort by best selling books</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" and click "Книжарница" &gt; "Книги"
+3. Scroll down and from sort menu choose "Най-продавани"</t>
+  </si>
+  <si>
+    <t>Products are sorted by best selling</t>
+  </si>
+  <si>
+    <t>Sort by newest books</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" and click "Книжарница" &gt; "Книги"
+3. Scroll down and from sort menu choose "Най-Нови"</t>
+  </si>
+  <si>
+    <t>Products are sorted by newest</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1241,6 +1378,13 @@
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1361,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1455,6 +1599,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6517,7 +6667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="A5:C13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6563,110 +6713,216 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>314</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="30"/>
+        <v>316</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>320</v>
+      </c>
       <c r="F2" s="16" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>349</v>
+      </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>350</v>
+      </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>334</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>352</v>
+      </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>340</v>
+      </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>354</v>
+      </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="F9" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>355</v>
+      </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>346</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -17,18 +17,22 @@
     <sheet name="Registration and Account" sheetId="13" r:id="rId3"/>
     <sheet name="Navigation" sheetId="14" r:id="rId4"/>
     <sheet name="Search" sheetId="15" r:id="rId5"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId7"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId8"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="Product overview" sheetId="16" r:id="rId6"/>
+    <sheet name="Product Detail Page" sheetId="17" r:id="rId7"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Landing Page'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Navigation!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Product Detail Page'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Product overview'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Registration and Account'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Search!$A$1:$H$47</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -91,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="390">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1262,12 +1266,123 @@
   <si>
     <t>S9</t>
   </si>
+  <si>
+    <t>PO1</t>
+  </si>
+  <si>
+    <t>Select a specific PO</t>
+  </si>
+  <si>
+    <t>Select BLU-RAY movies</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Музика и филми" and click "Филми на Blue Ray"</t>
+  </si>
+  <si>
+    <t>Select Vynil music</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Музика и филми" and click "Музика на Vinyl"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Музика и филми" and click "Сериали"</t>
+  </si>
+  <si>
+    <t>Select TV serials</t>
+  </si>
+  <si>
+    <t>Select Dell laptops</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Dell"</t>
+  </si>
+  <si>
+    <t>Select Razer laptops</t>
+  </si>
+  <si>
+    <t>User is redirected to BLU-RAY movie section</t>
+  </si>
+  <si>
+    <t>User is redirected to Vinyl section</t>
+  </si>
+  <si>
+    <t>User is redirected to Series section</t>
+  </si>
+  <si>
+    <t>User is redirected to Dell products</t>
+  </si>
+  <si>
+    <t>User is redirected to Razer products</t>
+  </si>
+  <si>
+    <t>Select Operating systems</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Razer"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Операциаонни системи"</t>
+  </si>
+  <si>
+    <t>User is redirected to OS products</t>
+  </si>
+  <si>
+    <t>PO2</t>
+  </si>
+  <si>
+    <t>PO3</t>
+  </si>
+  <si>
+    <t>PO4</t>
+  </si>
+  <si>
+    <t>PO5</t>
+  </si>
+  <si>
+    <t>PO6</t>
+  </si>
+  <si>
+    <t>Select Monitors</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Монитори"</t>
+  </si>
+  <si>
+    <t>User is redirected to Monitors products</t>
+  </si>
+  <si>
+    <t>PO7</t>
+  </si>
+  <si>
+    <t>Select Gaming Monitors</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Монитори"
+3. Click "Gaming monitors"</t>
+  </si>
+  <si>
+    <t>User is redirected to Gaming monitors products</t>
+  </si>
+  <si>
+    <t>PO8</t>
+  </si>
+  <si>
+    <t>PDP1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1384,6 +1499,21 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1505,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1597,13 +1727,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1889,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:O21"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,11 +2049,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -2238,6 +2386,389 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="20" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="20" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6665,9 +7196,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6726,7 +7257,7 @@
       <c r="D2" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>320</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -6751,7 +7282,7 @@
       <c r="D3" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>321</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -8036,6 +8567,2632 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8219,7 +11376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8311,387 +11468,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="20" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="20" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="406">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1377,12 +1377,67 @@
   <si>
     <t>PDP1</t>
   </si>
+  <si>
+    <t>Select a specific PDP</t>
+  </si>
+  <si>
+    <t>Select random product page</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Scroll down and click first product that appears.</t>
+  </si>
+  <si>
+    <t>Product page is opend and user can see details about it</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Геймин" and click "Мишки"
+3. Scroll down and click "мишка Glorious Odin"</t>
+  </si>
+  <si>
+    <t>Product page for "мишка Glorious Odin" loads without errors</t>
+  </si>
+  <si>
+    <t>Select мишка Glorious Odin</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Геймин" and click "Клавиатури"
+3. Scroll down and click "клавиатура Razer Ornata Chroma"</t>
+  </si>
+  <si>
+    <t>Select клавиатура Razer Ornata Chroma</t>
+  </si>
+  <si>
+    <t>Product page for "клавиатура Razer Ornata Chroma" loads without errors</t>
+  </si>
+  <si>
+    <t>Select  слушалки Genesis - Radon 300</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Геймин" and click "Клавиатури"
+3. Scroll down and click " слушалки Genesis - Radon 300"</t>
+  </si>
+  <si>
+    <t>Product page for "слушалки Genesis - Radon 300" loads without errors</t>
+  </si>
+  <si>
+    <t>PDP2</t>
+  </si>
+  <si>
+    <t>PDP3</t>
+  </si>
+  <si>
+    <t>PDP4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1499,21 +1554,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1635,7 +1675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1735,24 +1775,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2038,7 +2060,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G33" sqref="G33:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9930,7 +9952,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9976,60 +9998,96 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="B2" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>403</v>
+      </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>394</v>
+      </c>
       <c r="E3" s="34"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>404</v>
+      </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>397</v>
+      </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>405</v>
+      </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>401</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="418">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1378,12 +1378,6 @@
     <t>PDP1</t>
   </si>
   <si>
-    <t>Select a specific PDP</t>
-  </si>
-  <si>
-    <t>Select random product page</t>
-  </si>
-  <si>
     <t>1. Navigate to https://www.ozone.bg/
 2. Scroll down and click first product that appears.</t>
   </si>
@@ -1391,46 +1385,94 @@
     <t>Product page is opend and user can see details about it</t>
   </si>
   <si>
+    <t>Product page for "мишка Glorious Odin" loads without errors</t>
+  </si>
+  <si>
+    <t>Product page for "клавиатура Razer Ornata Chroma" loads without errors</t>
+  </si>
+  <si>
+    <t>Product page for "слушалки Genesis - Radon 300" loads without errors</t>
+  </si>
+  <si>
+    <t>PDP2</t>
+  </si>
+  <si>
+    <t>PDP3</t>
+  </si>
+  <si>
+    <t>PDP4</t>
+  </si>
+  <si>
+    <t>Find a specific PDP</t>
+  </si>
+  <si>
+    <t>Find random product page</t>
+  </si>
+  <si>
+    <t>Find мишка Glorious Odin</t>
+  </si>
+  <si>
+    <t>Find клавиатура Razer Ornata Chroma</t>
+  </si>
+  <si>
+    <t>Find слушалки Genesis - Radon 300</t>
+  </si>
+  <si>
+    <t>Find Смартфон Apple - iPhone 11</t>
+  </si>
+  <si>
     <t>1. Navigate to https://www.ozone.bg/
-2. Hover over "Категории" &gt; "Геймин" and click "Мишки"
+2. Hover over "Категории" &gt; "Гейминг" and click "Клавиатури"
+3. Scroll down and click "клавиатура Razer Ornata Chroma"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Гейминг" and click "Мишки"
 3. Scroll down and click "мишка Glorious Odin"</t>
   </si>
   <si>
-    <t>Product page for "мишка Glorious Odin" loads without errors</t>
-  </si>
-  <si>
-    <t>Select мишка Glorious Odin</t>
-  </si>
-  <si>
     <t>1. Navigate to https://www.ozone.bg/
-2. Hover over "Категории" &gt; "Геймин" and click "Клавиатури"
-3. Scroll down and click "клавиатура Razer Ornata Chroma"</t>
-  </si>
-  <si>
-    <t>Select клавиатура Razer Ornata Chroma</t>
-  </si>
-  <si>
-    <t>Product page for "клавиатура Razer Ornata Chroma" loads without errors</t>
-  </si>
-  <si>
-    <t>Select  слушалки Genesis - Radon 300</t>
+2. Hover over "Категории" &gt; "Мобилни устройства" and click "Apple IPone"
+3. Click "Смартфон Apple - iPhone 11" any color</t>
   </si>
   <si>
     <t>1. Navigate to https://www.ozone.bg/
-2. Hover over "Категории" &gt; "Геймин" and click "Клавиатури"
-3. Scroll down and click " слушалки Genesis - Radon 300"</t>
-  </si>
-  <si>
-    <t>Product page for "слушалки Genesis - Radon 300" loads without errors</t>
-  </si>
-  <si>
-    <t>PDP2</t>
-  </si>
-  <si>
-    <t>PDP3</t>
-  </si>
-  <si>
-    <t>PDP4</t>
+2. Hover over "Категории" &gt; "Гейминг" and click "Клавиатури"
+3. Scroll down and click "слушалки Genesis - Radon 300"</t>
+  </si>
+  <si>
+    <t>Product page for "Смартфон apple - iphone 11" loads without errors</t>
+  </si>
+  <si>
+    <t>Product page for "Смартфон LG G6" loads without errors</t>
+  </si>
+  <si>
+    <t>Find Смартфон LG G6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Калъф Speck MacBook Pro 13 </t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Мобилни устройства" and click "Калъфи за таблети"
+3. Click "Калъф Speck MacBook Pro 13"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Мобилни устройства" and click "LG"
+3. Click "Смартфон LG G6"</t>
+  </si>
+  <si>
+    <t>Product page for "Калъф Speck MacBook Pro 13 " loads without errors</t>
+  </si>
+  <si>
+    <t>PDP5</t>
+  </si>
+  <si>
+    <t>PDP6</t>
+  </si>
+  <si>
+    <t>PDP7</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2102,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:R34"/>
+      <selection activeCell="G30" sqref="G30:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9952,7 +9994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10003,20 +10045,20 @@
         <v>389</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>392</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>7</v>
@@ -10025,21 +10067,21 @@
     </row>
     <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>7</v>
@@ -10047,21 +10089,21 @@
     </row>
     <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>7</v>
@@ -10069,55 +10111,91 @@
     </row>
     <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="16" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>415</v>
+      </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>406</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>416</v>
+      </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>413</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>417</v>
+      </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>412</v>
+      </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>

--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="Search" sheetId="15" r:id="rId5"/>
     <sheet name="Product overview" sheetId="16" r:id="rId6"/>
     <sheet name="Product Detail Page" sheetId="17" r:id="rId7"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId9"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId10"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="Cart" sheetId="18" r:id="rId8"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId10"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId11"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Cart!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Landing Page'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Navigation!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Product Detail Page'!$A$1:$H$47</definedName>
@@ -95,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="440">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1473,6 +1475,85 @@
   </si>
   <si>
     <t>PDP7</t>
+  </si>
+  <si>
+    <t>Find Бебешко гърне Thermobaby Funny Potty</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Майка и бебе" and click "Гърнета и седалки"
+3. Click "Бебешко гърне Thermobaby Funny Potty"</t>
+  </si>
+  <si>
+    <t>Product page for "Бебешко гърне Thermobaby Funny Potty" loads without errors</t>
+  </si>
+  <si>
+    <t>Product page for "Калъф Speck MacBook Pro 13" loads without errors</t>
+  </si>
+  <si>
+    <t>Find Бебешка люлка 2 в 1 KinderKraft Flo</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Майка и бебе" and click "Люлки"
+3. Click "Бебешка люлка 2 в 1 KinderKraft Flo"</t>
+  </si>
+  <si>
+    <t>Product page for "Бебешка люлка 2 в 1 KinderKraft Flo" loads without errors</t>
+  </si>
+  <si>
+    <t>Find Бънджи за окачване Kikka Boo Cool Kids</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Майка и бебе" and click "Бънджита"
+3. Click "Бънджи за окачване Kikka Boo Cool Kids"</t>
+  </si>
+  <si>
+    <t>Product page for "Бънджи за окачване Kikka Boo Cool Kids " loads without errors</t>
+  </si>
+  <si>
+    <t>PDP8</t>
+  </si>
+  <si>
+    <t>PDP9</t>
+  </si>
+  <si>
+    <t>PDP10</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Add items to cart</t>
+  </si>
+  <si>
+    <t>Product is added to the cart</t>
+  </si>
+  <si>
+    <t>Add Фолклорът на света на диска to cart</t>
+  </si>
+  <si>
+    <t>Add Гейминг конфигурация White Walker to cart</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Книжарница" and click "Научна фантастика, фентъзи и хорър"
+3. Click "Фолклорът на света на диска
+" &gt; "PRE-ORDER" &gt; "към количката"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Ozone"
+3. Click "Гейминг конфигурация White Walker" &gt; "Купи" &gt; "към количката"</t>
+  </si>
+  <si>
+    <t>Add Геймърски монитор Dell S2719DGF - 27" to cart</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Тв, монитори и видео" and click "Dell"
+3. Click "Геймърски монитор Dell S2719DGF - 27"" &gt; "Купи" &gt; "към количката"</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H34"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2454,6 +2535,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="19" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2693,7 +2868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9992,9 +10167,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10188,7 +10363,7 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="16" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>414</v>
@@ -10196,6 +10371,1333 @@
       <c r="H8" s="16" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="A8:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
@@ -11328,7 +12830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11510,98 +13012,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="19" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -20,15 +20,17 @@
     <sheet name="Product overview" sheetId="16" r:id="rId6"/>
     <sheet name="Product Detail Page" sheetId="17" r:id="rId7"/>
     <sheet name="Cart" sheetId="18" r:id="rId8"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId10"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId11"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId12"/>
+    <sheet name="Order Process" sheetId="20" r:id="rId9"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId10"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Cart!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Landing Page'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Navigation!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Order Process'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Product Detail Page'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Product overview'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Registration and Account'!$A$1:$H$47</definedName>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="465">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1555,12 +1557,107 @@
 2. Hover over "Категории" &gt; "Тв, монитори и видео" and click "Dell"
 3. Click "Геймърски монитор Dell S2719DGF - 27"" &gt; "Купи" &gt; "към количката"</t>
   </si>
+  <si>
+    <t>Increase quantities in cart</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Книжарница" and click "Научна фантастика, фентъзи и хорър"
+3. Click "Фолклорът на света на диска
+" &gt; "PRE-ORDER" &gt; "към количката"
+4. Click "Plus" button 10 times</t>
+  </si>
+  <si>
+    <t>Increase Фолклорът на света на диска 10 times</t>
+  </si>
+  <si>
+    <t>Increase Геймърски монитор Dell S2719DGF - 27 5 times</t>
+  </si>
+  <si>
+    <t>Increase Гейминг конфигурация White Walker 5 times</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Тв, монитори и видео" and click "Dell"
+3. Click "Геймърски монитор Dell S2719DGF" &gt; "Купи" &gt; "към количката"
+4. Click "Plus" button 5 times</t>
+  </si>
+  <si>
+    <t>Quantites increase by 10 and price increases accordingly</t>
+  </si>
+  <si>
+    <t>Quantites increase by 5 and price increases accordingly</t>
+  </si>
+  <si>
+    <t>Set quantities in cart to 0</t>
+  </si>
+  <si>
+    <t>Set quantites for Фолклорът на света на диска to 0</t>
+  </si>
+  <si>
+    <t>Item disappears from cart</t>
+  </si>
+  <si>
+    <t>Set quantites for Гейминг конфигурация White Walker to 0</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Книжарница" and click "Научна фантастика, фентъзи и хорър"
+3. Click "Фолклорът на света на диска
+" &gt; "PRE-ORDER" &gt; "към количката"
+4. Click inside the Quantites field and enter 0</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Ozone"
+3. Click "Гейминг конфигурация White Walker" &gt; "Купи" &gt; "към количката"
+4. Click "Plus" button 5 times</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Ozone"
+3. Click "Гейминг конфигурация White Walker" &gt; "Купи" &gt; "към количката"
+4. Click inside the Quantites field and enter 0</t>
+  </si>
+  <si>
+    <t>Set quantites for Геймърски монитор Dell S2719DGF to 0</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Тв, монитори и видео" and click "Dell"
+3. Click "Геймърски монитор Dell S2719DGF" &gt; "Купи" &gt; "към количката"
+4. Click inside the Quantites field and enter 0</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1677,6 +1774,21 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1798,7 +1910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1898,6 +2010,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2183,7 +2307,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G38" sqref="G38:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2535,6 +2659,190 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="19" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2628,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2868,7 +3176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11546,9 +11854,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="A8:D11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11620,7 +11928,9 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="15" t="s">
+        <v>457</v>
+      </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
         <v>435</v>
@@ -11640,7 +11950,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="15" t="s">
+        <v>458</v>
+      </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
         <v>438</v>
@@ -11659,65 +11971,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>441</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>460</v>
+      </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>461</v>
+      </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>445</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>463</v>
+      </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>464</v>
+      </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
@@ -12835,181 +13229,1268 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="A2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="19" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I1" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="20"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
+++ b/E-comerse/Ozone/Ozone.bg Test Cases v1.0.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="500">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1652,12 +1652,126 @@
   <si>
     <t>C9</t>
   </si>
+  <si>
+    <t>OP1</t>
+  </si>
+  <si>
+    <t>Order "Това не е краят"</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Книжарница" and click "Романтични"
+3. Click "Това не е краят"&gt; "PRE-ORDER" &gt; "към количката"
+4. Click "Към Завършване"</t>
+  </si>
+  <si>
+    <t>Order a book with "Плащане в брой"</t>
+  </si>
+  <si>
+    <t>Order Lenovo Y540-15IRH</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Лаптопи и компютри" and click "Lenovo"
+3. Click "Lenovo Y540-15IRH"&gt; "Купи" &gt; "към количката"
+4. Click "Към Завършване"</t>
+  </si>
+  <si>
+    <t>Product and transport prices are visible and clear</t>
+  </si>
+  <si>
+    <t>Order Wacom Intuos Pro M, North</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.ozone.bg/
+2. Hover over "Категории" &gt; "Мобилни устройства" and click "За професионалисти"
+3. Click "Wacom Intuos Pro M, North"&gt; "Купи" &gt; "към количката"
+4. Click "Към Завършване"</t>
+  </si>
+  <si>
+    <t>Change "Начин на плащане"</t>
+  </si>
+  <si>
+    <t>Change to Epay</t>
+  </si>
+  <si>
+    <t>1. From OP3 click "Epay" from Начини на плащане</t>
+  </si>
+  <si>
+    <t>Change to ePay - EasyPay и B-Pay</t>
+  </si>
+  <si>
+    <t>1. From OP4 click "ePay - EasyPay и B-Pay" from Начини на плащане</t>
+  </si>
+  <si>
+    <t>ePay logo appears and user can pay by Epay</t>
+  </si>
+  <si>
+    <t>easy Pay logo appears and user can pay by easy Pay</t>
+  </si>
+  <si>
+    <t>Change Плащане с карта</t>
+  </si>
+  <si>
+    <t>1. From OP5 click "Плащане с карта" from Начини на плащане</t>
+  </si>
+  <si>
+    <t>Paying cards logo appears</t>
+  </si>
+  <si>
+    <t>OP2</t>
+  </si>
+  <si>
+    <t>OP3</t>
+  </si>
+  <si>
+    <t>OP4</t>
+  </si>
+  <si>
+    <t>OP5</t>
+  </si>
+  <si>
+    <t>OP6</t>
+  </si>
+  <si>
+    <t>change "Метод на доставка"</t>
+  </si>
+  <si>
+    <t>Change to "Магазин Ozone"</t>
+  </si>
+  <si>
+    <t>1. From OP6 click "Магазин Ozone" from Методи на доставка</t>
+  </si>
+  <si>
+    <t>Delivery address and price changes accordingly</t>
+  </si>
+  <si>
+    <t>Change to "Офис Speedy: 2,99 лв."</t>
+  </si>
+  <si>
+    <t>1. From OP7 click "Офис Speedy: 2,99 лв." from Методи на доставка</t>
+  </si>
+  <si>
+    <t>Change to "Офис Еконт: 2,99 лв."</t>
+  </si>
+  <si>
+    <t>1. From OP7 click "Офис Еконт: 2,99 лв." from Методи на доставка</t>
+  </si>
+  <si>
+    <t>OP7</t>
+  </si>
+  <si>
+    <t>OP8</t>
+  </si>
+  <si>
+    <t>OP9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1774,21 +1888,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1910,7 +2009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2010,18 +2109,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2307,7 +2394,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:P39"/>
+      <selection activeCell="H44" sqref="H44:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13233,7 +13320,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="A2:H2"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13280,109 +13367,209 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="32" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="A2" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>484</v>
+      </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>470</v>
+      </c>
       <c r="E3" s="34"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="F4" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>476</v>
+      </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>487</v>
+      </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>478</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>488</v>
+      </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>482</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>491</v>
+      </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>498</v>
+      </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>494</v>
+      </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="F9" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>499</v>
+      </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>496</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
